--- a/data/pca/factorExposure/factorExposure_2011-11-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01338374206641886</v>
+        <v>-0.01373171676691193</v>
       </c>
       <c r="C2">
-        <v>-0.0278384164993035</v>
+        <v>0.01269413118321894</v>
       </c>
       <c r="D2">
-        <v>0.01384843446081869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02413696555460065</v>
+      </c>
+      <c r="E2">
+        <v>-0.01100178151016904</v>
+      </c>
+      <c r="F2">
+        <v>0.03787615379724488</v>
+      </c>
+      <c r="G2">
+        <v>0.008162393572168436</v>
+      </c>
+      <c r="H2">
+        <v>0.01893020068123179</v>
+      </c>
+      <c r="I2">
+        <v>-0.03157456486793894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07838243734848742</v>
+        <v>-0.0904032063889611</v>
       </c>
       <c r="C4">
-        <v>-0.05971170160322386</v>
+        <v>-0.0001458723369928558</v>
       </c>
       <c r="D4">
-        <v>0.07039432013041114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08188414272192547</v>
+      </c>
+      <c r="E4">
+        <v>-0.006962113937099981</v>
+      </c>
+      <c r="F4">
+        <v>0.04622528171150242</v>
+      </c>
+      <c r="G4">
+        <v>-0.02258425987180245</v>
+      </c>
+      <c r="H4">
+        <v>-0.03340650507709123</v>
+      </c>
+      <c r="I4">
+        <v>-0.04628178221988065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1154523603899035</v>
+        <v>-0.1261428187188481</v>
       </c>
       <c r="C6">
-        <v>-0.05316151076876157</v>
+        <v>0.02688605365438233</v>
       </c>
       <c r="D6">
-        <v>-0.0003139775377098418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02482730163770384</v>
+      </c>
+      <c r="E6">
+        <v>0.02392930954065864</v>
+      </c>
+      <c r="F6">
+        <v>0.04904584371312724</v>
+      </c>
+      <c r="G6">
+        <v>-0.03712703783157729</v>
+      </c>
+      <c r="H6">
+        <v>0.1734866643186662</v>
+      </c>
+      <c r="I6">
+        <v>0.02254221791022239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.05826764064685775</v>
+        <v>-0.06550687369957822</v>
       </c>
       <c r="C7">
-        <v>-0.04179718576042228</v>
+        <v>-0.005020675512052139</v>
       </c>
       <c r="D7">
-        <v>0.0302253470468655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0581310409965054</v>
+      </c>
+      <c r="E7">
+        <v>-0.02061794315918089</v>
+      </c>
+      <c r="F7">
+        <v>0.04844690038720909</v>
+      </c>
+      <c r="G7">
+        <v>0.02349803510921263</v>
+      </c>
+      <c r="H7">
+        <v>-0.01572998317748971</v>
+      </c>
+      <c r="I7">
+        <v>0.0002754441720098987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03826452823049242</v>
+        <v>-0.04305275566524687</v>
       </c>
       <c r="C8">
-        <v>-0.01317357848455641</v>
+        <v>-0.006112498504851418</v>
       </c>
       <c r="D8">
-        <v>0.06439886361380258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02961913494247117</v>
+      </c>
+      <c r="E8">
+        <v>-0.005995229609286814</v>
+      </c>
+      <c r="F8">
+        <v>0.0797436742270094</v>
+      </c>
+      <c r="G8">
+        <v>-0.08785303721701365</v>
+      </c>
+      <c r="H8">
+        <v>0.01571893319292992</v>
+      </c>
+      <c r="I8">
+        <v>-0.09156524723078563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07421721903997514</v>
+        <v>-0.08190848043948554</v>
       </c>
       <c r="C9">
-        <v>-0.04805640209350982</v>
+        <v>-0.005970961775779511</v>
       </c>
       <c r="D9">
-        <v>0.06673813845715428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.07085670643717258</v>
+      </c>
+      <c r="E9">
+        <v>-0.01881327034768503</v>
+      </c>
+      <c r="F9">
+        <v>0.04166474863213152</v>
+      </c>
+      <c r="G9">
+        <v>-0.03682361508122087</v>
+      </c>
+      <c r="H9">
+        <v>-0.03447015469082285</v>
+      </c>
+      <c r="I9">
+        <v>-0.05106840442783848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02423659228784818</v>
+        <v>-0.05177979131419081</v>
       </c>
       <c r="C10">
-        <v>-0.01178132548820996</v>
+        <v>0.1392053348083843</v>
       </c>
       <c r="D10">
-        <v>-0.1717628803282412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1323831448012604</v>
+      </c>
+      <c r="E10">
+        <v>-0.02518250012582779</v>
+      </c>
+      <c r="F10">
+        <v>0.05756169022802844</v>
+      </c>
+      <c r="G10">
+        <v>0.03646349334595297</v>
+      </c>
+      <c r="H10">
+        <v>0.03150674093107112</v>
+      </c>
+      <c r="I10">
+        <v>0.03300748534316894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06932677260509822</v>
+        <v>-0.07377567308578203</v>
       </c>
       <c r="C11">
-        <v>-0.0431954135364904</v>
+        <v>-0.01155279136057596</v>
       </c>
       <c r="D11">
-        <v>0.05774817299597394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06423411460027637</v>
+      </c>
+      <c r="E11">
+        <v>-0.001035840905460632</v>
+      </c>
+      <c r="F11">
+        <v>0.03927819829229813</v>
+      </c>
+      <c r="G11">
+        <v>-0.04680368463354957</v>
+      </c>
+      <c r="H11">
+        <v>-0.05772940287739835</v>
+      </c>
+      <c r="I11">
+        <v>-0.06148243971168809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06208127611461581</v>
+        <v>-0.06861064663701899</v>
       </c>
       <c r="C12">
-        <v>-0.05367594288592746</v>
+        <v>0.002175686849511677</v>
       </c>
       <c r="D12">
-        <v>0.04559663323022297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.06045227505804762</v>
+      </c>
+      <c r="E12">
+        <v>-0.008201359172395683</v>
+      </c>
+      <c r="F12">
+        <v>0.02815638778020798</v>
+      </c>
+      <c r="G12">
+        <v>-0.02293245880733742</v>
+      </c>
+      <c r="H12">
+        <v>-0.02662671886297618</v>
+      </c>
+      <c r="I12">
+        <v>-0.06187528995737564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.07028594986514085</v>
+        <v>-0.06955792864314234</v>
       </c>
       <c r="C13">
-        <v>-0.05033814270696554</v>
+        <v>0.006488704292858673</v>
       </c>
       <c r="D13">
-        <v>0.03582728355787367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04862633651219391</v>
+      </c>
+      <c r="E13">
+        <v>-0.007200852665239021</v>
+      </c>
+      <c r="F13">
+        <v>0.01981875154616476</v>
+      </c>
+      <c r="G13">
+        <v>-0.02699157097890116</v>
+      </c>
+      <c r="H13">
+        <v>-0.04397175439540764</v>
+      </c>
+      <c r="I13">
+        <v>-0.06708900930232031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03031813548752078</v>
+        <v>-0.04072042143660939</v>
       </c>
       <c r="C14">
-        <v>-0.03107656074144971</v>
+        <v>0.01928247102692114</v>
       </c>
       <c r="D14">
-        <v>-0.004795633962399718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02606251871345337</v>
+      </c>
+      <c r="E14">
+        <v>-0.02116139706634605</v>
+      </c>
+      <c r="F14">
+        <v>0.02177420522446867</v>
+      </c>
+      <c r="G14">
+        <v>-0.01811846366854048</v>
+      </c>
+      <c r="H14">
+        <v>-0.0680586683964481</v>
+      </c>
+      <c r="I14">
+        <v>-0.02106064274735669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0421859119639585</v>
+        <v>-0.04025040367765574</v>
       </c>
       <c r="C15">
-        <v>-0.008825798321299814</v>
+        <v>-0.00516198021074324</v>
       </c>
       <c r="D15">
-        <v>0.02443337981279478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01066769510220426</v>
+      </c>
+      <c r="E15">
+        <v>-0.03043935259492665</v>
+      </c>
+      <c r="F15">
+        <v>0.005077320642401539</v>
+      </c>
+      <c r="G15">
+        <v>-0.02791100318593157</v>
+      </c>
+      <c r="H15">
+        <v>-0.02985793237371922</v>
+      </c>
+      <c r="I15">
+        <v>0.01694010513925515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05794184810824732</v>
+        <v>-0.07001522247816928</v>
       </c>
       <c r="C16">
-        <v>-0.04079843111327568</v>
+        <v>-0.008867608423723567</v>
       </c>
       <c r="D16">
-        <v>0.05656699836391622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06645047320087495</v>
+      </c>
+      <c r="E16">
+        <v>-0.003982015994066821</v>
+      </c>
+      <c r="F16">
+        <v>0.03391160793096511</v>
+      </c>
+      <c r="G16">
+        <v>-0.02253812832823069</v>
+      </c>
+      <c r="H16">
+        <v>-0.04322705683090353</v>
+      </c>
+      <c r="I16">
+        <v>-0.0383765127930065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06403031722948056</v>
+        <v>-0.06366962207686526</v>
       </c>
       <c r="C20">
-        <v>-0.02929910245458265</v>
+        <v>-0.01133820245097936</v>
       </c>
       <c r="D20">
-        <v>0.04555575530747562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0407757946735028</v>
+      </c>
+      <c r="E20">
+        <v>-0.003151316168071654</v>
+      </c>
+      <c r="F20">
+        <v>0.0276255794213334</v>
+      </c>
+      <c r="G20">
+        <v>-0.02162916070696108</v>
+      </c>
+      <c r="H20">
+        <v>-0.04214113058769111</v>
+      </c>
+      <c r="I20">
+        <v>-0.06599743550213003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0315642931933506</v>
+        <v>-0.02644007258100703</v>
       </c>
       <c r="C21">
-        <v>-0.01232371658601632</v>
+        <v>-0.009061636073178891</v>
       </c>
       <c r="D21">
-        <v>0.009201701444849093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01825584023311159</v>
+      </c>
+      <c r="E21">
+        <v>-0.03557866076821043</v>
+      </c>
+      <c r="F21">
+        <v>-0.008872822261824394</v>
+      </c>
+      <c r="G21">
+        <v>-0.01002412251303095</v>
+      </c>
+      <c r="H21">
+        <v>0.04118380201998872</v>
+      </c>
+      <c r="I21">
+        <v>0.02288853495460302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.08268585887199227</v>
+        <v>-0.07579179393518165</v>
       </c>
       <c r="C22">
-        <v>-0.08316299225557507</v>
+        <v>0.0002795265432015139</v>
       </c>
       <c r="D22">
-        <v>0.1270295038129164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1103474962466905</v>
+      </c>
+      <c r="E22">
+        <v>-0.606957334371836</v>
+      </c>
+      <c r="F22">
+        <v>-0.01538798271232156</v>
+      </c>
+      <c r="G22">
+        <v>0.1980144609782134</v>
+      </c>
+      <c r="H22">
+        <v>0.1310814667337372</v>
+      </c>
+      <c r="I22">
+        <v>0.1193432211793079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.08348492066302168</v>
+        <v>-0.07659026485275369</v>
       </c>
       <c r="C23">
-        <v>-0.08359558417391361</v>
+        <v>-0.0001208575540065731</v>
       </c>
       <c r="D23">
-        <v>0.1281651034672594</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1116938787982191</v>
+      </c>
+      <c r="E23">
+        <v>-0.609124389639092</v>
+      </c>
+      <c r="F23">
+        <v>-0.01452047382134112</v>
+      </c>
+      <c r="G23">
+        <v>0.1920150431165296</v>
+      </c>
+      <c r="H23">
+        <v>0.1302420574519638</v>
+      </c>
+      <c r="I23">
+        <v>0.1211222147888773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0752889534486496</v>
+        <v>-0.08013897342904448</v>
       </c>
       <c r="C24">
-        <v>-0.05145713889711837</v>
+        <v>-0.005171002207260743</v>
       </c>
       <c r="D24">
-        <v>0.06027642612796014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06709646663549754</v>
+      </c>
+      <c r="E24">
+        <v>-0.01037034446765939</v>
+      </c>
+      <c r="F24">
+        <v>0.03999234144946008</v>
+      </c>
+      <c r="G24">
+        <v>-0.03971914625984009</v>
+      </c>
+      <c r="H24">
+        <v>-0.02636027389913095</v>
+      </c>
+      <c r="I24">
+        <v>-0.05221821711526302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07260014667843934</v>
+        <v>-0.07788067133353349</v>
       </c>
       <c r="C25">
-        <v>-0.05748152027768926</v>
+        <v>0.004889083502992532</v>
       </c>
       <c r="D25">
-        <v>0.05634254974103083</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06433910343853155</v>
+      </c>
+      <c r="E25">
+        <v>-0.01562041643307182</v>
+      </c>
+      <c r="F25">
+        <v>0.03598762824840265</v>
+      </c>
+      <c r="G25">
+        <v>-0.04741694040552602</v>
+      </c>
+      <c r="H25">
+        <v>-0.03410870512191775</v>
+      </c>
+      <c r="I25">
+        <v>-0.06578335555001504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04449495614121803</v>
+        <v>-0.04573778194103974</v>
       </c>
       <c r="C26">
-        <v>-0.01475242797073735</v>
+        <v>-0.004945021547571759</v>
       </c>
       <c r="D26">
-        <v>0.01294889495943356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01842856100199242</v>
+      </c>
+      <c r="E26">
+        <v>-0.04332855179820293</v>
+      </c>
+      <c r="F26">
+        <v>0.02703737266700181</v>
+      </c>
+      <c r="G26">
+        <v>-0.02343093650526156</v>
+      </c>
+      <c r="H26">
+        <v>-0.04239714357758917</v>
+      </c>
+      <c r="I26">
+        <v>0.05168708667288949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.03992840469979065</v>
+        <v>-0.07224087771851224</v>
       </c>
       <c r="C28">
-        <v>-0.04637067922029172</v>
+        <v>0.2369836774115786</v>
       </c>
       <c r="D28">
-        <v>-0.3110446421286066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2134929102348951</v>
+      </c>
+      <c r="E28">
+        <v>-0.02695144531988507</v>
+      </c>
+      <c r="F28">
+        <v>0.05151564982964671</v>
+      </c>
+      <c r="G28">
+        <v>-0.0197491705203761</v>
+      </c>
+      <c r="H28">
+        <v>0.06866339585787923</v>
+      </c>
+      <c r="I28">
+        <v>0.06756539732570675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.04516818223106856</v>
+        <v>-0.05075392339346142</v>
       </c>
       <c r="C29">
-        <v>-0.04102871741335929</v>
+        <v>0.02281001104385135</v>
       </c>
       <c r="D29">
-        <v>-0.002411901845269656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02771252452054431</v>
+      </c>
+      <c r="E29">
+        <v>-0.0465288430857333</v>
+      </c>
+      <c r="F29">
+        <v>0.02975691248666821</v>
+      </c>
+      <c r="G29">
+        <v>-0.008041236059373342</v>
+      </c>
+      <c r="H29">
+        <v>-0.09390975103300161</v>
+      </c>
+      <c r="I29">
+        <v>-0.003969068230616337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1379843810958666</v>
+        <v>-0.1316318099385334</v>
       </c>
       <c r="C30">
-        <v>-0.09572178194337669</v>
+        <v>0.007626912301191225</v>
       </c>
       <c r="D30">
-        <v>0.1011910753903433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0979119865535852</v>
+      </c>
+      <c r="E30">
+        <v>-0.05842612248711854</v>
+      </c>
+      <c r="F30">
+        <v>0.02694459007861521</v>
+      </c>
+      <c r="G30">
+        <v>-0.0690429668172467</v>
+      </c>
+      <c r="H30">
+        <v>0.05688012341997115</v>
+      </c>
+      <c r="I30">
+        <v>-0.1728806797829121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04928607277976034</v>
+        <v>-0.04857889396716095</v>
       </c>
       <c r="C31">
-        <v>-0.02529219005966745</v>
+        <v>-0.008165896258826858</v>
       </c>
       <c r="D31">
-        <v>0.01850742119985535</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03545977172646111</v>
+      </c>
+      <c r="E31">
+        <v>-0.01962667978746623</v>
+      </c>
+      <c r="F31">
+        <v>0.0143546198259961</v>
+      </c>
+      <c r="G31">
+        <v>-3.472373345154329e-05</v>
+      </c>
+      <c r="H31">
+        <v>-0.06911014381390311</v>
+      </c>
+      <c r="I31">
+        <v>-0.01167272751065481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0356414665511532</v>
+        <v>-0.0403386941167951</v>
       </c>
       <c r="C32">
-        <v>-0.02947487894515989</v>
+        <v>0.02106829807121127</v>
       </c>
       <c r="D32">
-        <v>0.02474158124719014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0192479843883603</v>
+      </c>
+      <c r="E32">
+        <v>-0.04699328055011051</v>
+      </c>
+      <c r="F32">
+        <v>-0.005033967014527022</v>
+      </c>
+      <c r="G32">
+        <v>-0.03073505190007201</v>
+      </c>
+      <c r="H32">
+        <v>0.007554876265499996</v>
+      </c>
+      <c r="I32">
+        <v>-0.01001670221565838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.08721353113502971</v>
+        <v>-0.0945371787366507</v>
       </c>
       <c r="C33">
-        <v>-0.04460338843676766</v>
+        <v>-0.006508499080270628</v>
       </c>
       <c r="D33">
-        <v>0.04885950594570066</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0558828787133079</v>
+      </c>
+      <c r="E33">
+        <v>-0.01522257719435881</v>
+      </c>
+      <c r="F33">
+        <v>0.004147054565653254</v>
+      </c>
+      <c r="G33">
+        <v>-0.008657446172409638</v>
+      </c>
+      <c r="H33">
+        <v>-0.0575352893133765</v>
+      </c>
+      <c r="I33">
+        <v>-0.05443505069887034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05964440939151898</v>
+        <v>-0.06779083537619282</v>
       </c>
       <c r="C34">
-        <v>-0.02761248579625588</v>
+        <v>-0.01234241374174672</v>
       </c>
       <c r="D34">
-        <v>0.05377197353376998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04683266865606808</v>
+      </c>
+      <c r="E34">
+        <v>-0.01191439085860087</v>
+      </c>
+      <c r="F34">
+        <v>0.02485078428800041</v>
+      </c>
+      <c r="G34">
+        <v>-0.0285471991044887</v>
+      </c>
+      <c r="H34">
+        <v>-0.04524092174003323</v>
+      </c>
+      <c r="I34">
+        <v>-0.05051247758806204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03644925093113586</v>
+        <v>-0.03692667191194685</v>
       </c>
       <c r="C35">
-        <v>-0.01797776793342402</v>
+        <v>-0.001199582893447753</v>
       </c>
       <c r="D35">
-        <v>0.01816293299121501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0211929876224622</v>
+      </c>
+      <c r="E35">
+        <v>-0.01860342950348784</v>
+      </c>
+      <c r="F35">
+        <v>-0.0144414280431272</v>
+      </c>
+      <c r="G35">
+        <v>-0.002504435717193739</v>
+      </c>
+      <c r="H35">
+        <v>-0.03329590005282084</v>
+      </c>
+      <c r="I35">
+        <v>-0.02807103418514809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.02721624615605151</v>
+        <v>-0.02844578632126075</v>
       </c>
       <c r="C36">
-        <v>-0.01942388149621754</v>
+        <v>0.001309107657763481</v>
       </c>
       <c r="D36">
-        <v>0.01986325936564578</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02282768608211381</v>
+      </c>
+      <c r="E36">
+        <v>-0.03307043295444984</v>
+      </c>
+      <c r="F36">
+        <v>0.03084905259673887</v>
+      </c>
+      <c r="G36">
+        <v>-0.01413359138667778</v>
+      </c>
+      <c r="H36">
+        <v>-0.03998207678042465</v>
+      </c>
+      <c r="I36">
+        <v>-0.03192823200474634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05675748029613074</v>
+        <v>-0.05161802638089869</v>
       </c>
       <c r="C38">
-        <v>-0.01069150956136624</v>
+        <v>-0.01543316266786229</v>
       </c>
       <c r="D38">
-        <v>0.003227756743052519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01813061090430493</v>
+      </c>
+      <c r="E38">
+        <v>-0.05403150687363834</v>
+      </c>
+      <c r="F38">
+        <v>-0.002990800793049606</v>
+      </c>
+      <c r="G38">
+        <v>0.008868703147415676</v>
+      </c>
+      <c r="H38">
+        <v>-0.02384437893768841</v>
+      </c>
+      <c r="I38">
+        <v>-0.0111544728589205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09683101995082048</v>
+        <v>-0.1037765454522737</v>
       </c>
       <c r="C39">
-        <v>-0.07160274017462494</v>
+        <v>0.009710851185231521</v>
       </c>
       <c r="D39">
-        <v>0.04475288802641266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07689467704008636</v>
+      </c>
+      <c r="E39">
+        <v>-0.007877241152148442</v>
+      </c>
+      <c r="F39">
+        <v>0.01067063736451592</v>
+      </c>
+      <c r="G39">
+        <v>-0.04426657537188039</v>
+      </c>
+      <c r="H39">
+        <v>-0.01305252495536491</v>
+      </c>
+      <c r="I39">
+        <v>-0.0645993714281075</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07862910247971501</v>
+        <v>-0.05710003143857549</v>
       </c>
       <c r="C40">
-        <v>-0.03981571708237455</v>
+        <v>-0.01537186061694521</v>
       </c>
       <c r="D40">
-        <v>0.01078547732384393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0344786225376076</v>
+      </c>
+      <c r="E40">
+        <v>-0.04066056572216696</v>
+      </c>
+      <c r="F40">
+        <v>-0.0363035030283645</v>
+      </c>
+      <c r="G40">
+        <v>-0.06883008038366843</v>
+      </c>
+      <c r="H40">
+        <v>0.08309207519264696</v>
+      </c>
+      <c r="I40">
+        <v>-0.2740407275667052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0482846396010401</v>
+        <v>-0.04672154159549832</v>
       </c>
       <c r="C41">
-        <v>-0.01710841788036558</v>
+        <v>-0.01596391189880305</v>
       </c>
       <c r="D41">
-        <v>0.03229229895597786</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03046960011225931</v>
+      </c>
+      <c r="E41">
+        <v>-0.003213754692126793</v>
+      </c>
+      <c r="F41">
+        <v>-0.0121490201639907</v>
+      </c>
+      <c r="G41">
+        <v>-0.005947269090833624</v>
+      </c>
+      <c r="H41">
+        <v>-0.03588340433305779</v>
+      </c>
+      <c r="I41">
+        <v>-0.01268094972833537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05418869832984202</v>
+        <v>-0.05944871957709483</v>
       </c>
       <c r="C43">
-        <v>-0.03017433229918365</v>
+        <v>-0.0007920480112295588</v>
       </c>
       <c r="D43">
-        <v>0.008967737903856198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03591730624886633</v>
+      </c>
+      <c r="E43">
+        <v>-0.01904180404589201</v>
+      </c>
+      <c r="F43">
+        <v>0.01600890532848467</v>
+      </c>
+      <c r="G43">
+        <v>0.01523062187535573</v>
+      </c>
+      <c r="H43">
+        <v>-0.0593160344929853</v>
+      </c>
+      <c r="I43">
+        <v>0.002725238122143953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0939182813356923</v>
+        <v>-0.09276356455735565</v>
       </c>
       <c r="C44">
-        <v>-0.03591674565023449</v>
+        <v>-0.01624835195661224</v>
       </c>
       <c r="D44">
-        <v>0.05167561812860071</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05464170725604958</v>
+      </c>
+      <c r="E44">
+        <v>-0.07028126288822252</v>
+      </c>
+      <c r="F44">
+        <v>0.08713800855144062</v>
+      </c>
+      <c r="G44">
+        <v>-0.0800226784355479</v>
+      </c>
+      <c r="H44">
+        <v>-0.04417971993910946</v>
+      </c>
+      <c r="I44">
+        <v>-0.1096107156570513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02683911696612416</v>
+        <v>-0.04014331815099429</v>
       </c>
       <c r="C46">
-        <v>-0.02221376508686453</v>
+        <v>-3.722103489393106e-05</v>
       </c>
       <c r="D46">
-        <v>0.03110089709018799</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04082428122111789</v>
+      </c>
+      <c r="E46">
+        <v>-0.02990181594316579</v>
+      </c>
+      <c r="F46">
+        <v>0.02179644989692605</v>
+      </c>
+      <c r="G46">
+        <v>0.004220499598857303</v>
+      </c>
+      <c r="H46">
+        <v>-0.03865037558203514</v>
+      </c>
+      <c r="I46">
+        <v>-0.002493666262818227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03563833561489901</v>
+        <v>-0.04316374416832566</v>
       </c>
       <c r="C47">
-        <v>-0.02119265677182611</v>
+        <v>0.009553349672110172</v>
       </c>
       <c r="D47">
-        <v>-0.005628861453798597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01709253830298544</v>
+      </c>
+      <c r="E47">
+        <v>-0.04080753600412127</v>
+      </c>
+      <c r="F47">
+        <v>-0.004569632558855741</v>
+      </c>
+      <c r="G47">
+        <v>0.03029566820691723</v>
+      </c>
+      <c r="H47">
+        <v>-0.0273732300248367</v>
+      </c>
+      <c r="I47">
+        <v>-0.0414194086174678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.03777727662454895</v>
+        <v>-0.04045579354945049</v>
       </c>
       <c r="C48">
-        <v>-0.02812865665571151</v>
+        <v>0.005510801500233437</v>
       </c>
       <c r="D48">
-        <v>0.02942170981687974</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02482302005444637</v>
+      </c>
+      <c r="E48">
+        <v>-0.04022816622683154</v>
+      </c>
+      <c r="F48">
+        <v>0.01196795214448694</v>
+      </c>
+      <c r="G48">
+        <v>-0.02014718206631213</v>
+      </c>
+      <c r="H48">
+        <v>-0.01723081624256122</v>
+      </c>
+      <c r="I48">
+        <v>-0.003970436779971271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1640870431761311</v>
+        <v>-0.1988402590697217</v>
       </c>
       <c r="C49">
-        <v>-0.04574022312210647</v>
+        <v>0.01488551350153263</v>
       </c>
       <c r="D49">
-        <v>0.003033241610338179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03423161909741809</v>
+      </c>
+      <c r="E49">
+        <v>0.1817686142728278</v>
+      </c>
+      <c r="F49">
+        <v>0.010294810016675</v>
+      </c>
+      <c r="G49">
+        <v>0.1642748850114109</v>
+      </c>
+      <c r="H49">
+        <v>0.2394720630866151</v>
+      </c>
+      <c r="I49">
+        <v>-0.008686972213166765</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04528026358993015</v>
+        <v>-0.04817722195673644</v>
       </c>
       <c r="C50">
-        <v>-0.03039488693231758</v>
+        <v>-0.002478431824931462</v>
       </c>
       <c r="D50">
-        <v>0.03144370374553874</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04072165565625137</v>
+      </c>
+      <c r="E50">
+        <v>-0.0245622096406121</v>
+      </c>
+      <c r="F50">
+        <v>0.00877578330677521</v>
+      </c>
+      <c r="G50">
+        <v>-0.007399492134555451</v>
+      </c>
+      <c r="H50">
+        <v>-0.07573354497577652</v>
+      </c>
+      <c r="I50">
+        <v>0.01164048850559024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02395417158938695</v>
+        <v>-0.03348629404642475</v>
       </c>
       <c r="C51">
-        <v>-0.004226896352955116</v>
+        <v>0.003355928315958805</v>
       </c>
       <c r="D51">
-        <v>-0.002608025544385233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001249679543088277</v>
+      </c>
+      <c r="E51">
+        <v>-0.00380962039699947</v>
+      </c>
+      <c r="F51">
+        <v>0.01422625300037256</v>
+      </c>
+      <c r="G51">
+        <v>0.02144167632215486</v>
+      </c>
+      <c r="H51">
+        <v>0.02034085982750642</v>
+      </c>
+      <c r="I51">
+        <v>-0.001758465038073323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1533461699885827</v>
+        <v>-0.1608053642510262</v>
       </c>
       <c r="C53">
-        <v>-0.08052555737243755</v>
+        <v>0.03540232560910962</v>
       </c>
       <c r="D53">
-        <v>-0.01205027364086881</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04402879954340615</v>
+      </c>
+      <c r="E53">
+        <v>0.03217185809127998</v>
+      </c>
+      <c r="F53">
+        <v>-0.004051188117742204</v>
+      </c>
+      <c r="G53">
+        <v>-0.0005474865771751482</v>
+      </c>
+      <c r="H53">
+        <v>-0.1981020139946552</v>
+      </c>
+      <c r="I53">
+        <v>0.02285681923115606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0599939683288322</v>
+        <v>-0.0610876922328597</v>
       </c>
       <c r="C54">
-        <v>-0.03126174727855559</v>
+        <v>0.01235653447279074</v>
       </c>
       <c r="D54">
-        <v>0.01803736318263649</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0213692099644188</v>
+      </c>
+      <c r="E54">
+        <v>-0.0567064682950232</v>
+      </c>
+      <c r="F54">
+        <v>0.02846054141365469</v>
+      </c>
+      <c r="G54">
+        <v>-0.06064613446098028</v>
+      </c>
+      <c r="H54">
+        <v>-0.04286426089882835</v>
+      </c>
+      <c r="I54">
+        <v>-0.05262930036620844</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.0992501214463777</v>
+        <v>-0.1007515092774184</v>
       </c>
       <c r="C55">
-        <v>-0.05190230513558131</v>
+        <v>0.01216196920016174</v>
       </c>
       <c r="D55">
-        <v>0.00706567035888467</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03901391888144049</v>
+      </c>
+      <c r="E55">
+        <v>0.005593334270194241</v>
+      </c>
+      <c r="F55">
+        <v>0.01829904223224253</v>
+      </c>
+      <c r="G55">
+        <v>-0.02115519534973081</v>
+      </c>
+      <c r="H55">
+        <v>-0.1570817734355797</v>
+      </c>
+      <c r="I55">
+        <v>-0.0172078249963836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.145280636718495</v>
+        <v>-0.1522472342229946</v>
       </c>
       <c r="C56">
-        <v>-0.09032926031353632</v>
+        <v>0.02807053431369857</v>
       </c>
       <c r="D56">
-        <v>-0.008116748264222432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06557884427518208</v>
+      </c>
+      <c r="E56">
+        <v>0.02016642906531786</v>
+      </c>
+      <c r="F56">
+        <v>0.01140962747209679</v>
+      </c>
+      <c r="G56">
+        <v>-0.01221635469850918</v>
+      </c>
+      <c r="H56">
+        <v>-0.1977951119069242</v>
+      </c>
+      <c r="I56">
+        <v>0.05384916696792721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1223945455991661</v>
+        <v>-0.09098628687379169</v>
       </c>
       <c r="C58">
-        <v>0.01414295194753346</v>
+        <v>-0.06698124608916257</v>
       </c>
       <c r="D58">
-        <v>0.0505954977072524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0002108480569658953</v>
+      </c>
+      <c r="E58">
+        <v>-0.1048270542567412</v>
+      </c>
+      <c r="F58">
+        <v>0.03925423439599441</v>
+      </c>
+      <c r="G58">
+        <v>0.0451246926980523</v>
+      </c>
+      <c r="H58">
+        <v>0.1761968591702297</v>
+      </c>
+      <c r="I58">
+        <v>-0.4877978945055915</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1194030943928096</v>
+        <v>-0.1504818664063654</v>
       </c>
       <c r="C59">
-        <v>-0.05120093099280317</v>
+        <v>0.2604973136485992</v>
       </c>
       <c r="D59">
-        <v>-0.418363968189045</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2596810860884263</v>
+      </c>
+      <c r="E59">
+        <v>-0.02515751393337354</v>
+      </c>
+      <c r="F59">
+        <v>0.007422480504437543</v>
+      </c>
+      <c r="G59">
+        <v>-0.005538029076758211</v>
+      </c>
+      <c r="H59">
+        <v>-0.01988286887235262</v>
+      </c>
+      <c r="I59">
+        <v>0.01214291758204962</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2118694725612105</v>
+        <v>-0.2412853948684041</v>
       </c>
       <c r="C60">
-        <v>-0.09300470336214364</v>
+        <v>0.03141471315178242</v>
       </c>
       <c r="D60">
-        <v>-0.005289845834868911</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0634372731752893</v>
+      </c>
+      <c r="E60">
+        <v>0.1292663801511974</v>
+      </c>
+      <c r="F60">
+        <v>0.03829205055350184</v>
+      </c>
+      <c r="G60">
+        <v>0.03684941465448868</v>
+      </c>
+      <c r="H60">
+        <v>0.1562803273370259</v>
+      </c>
+      <c r="I60">
+        <v>0.03543584757298551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07748480795910861</v>
+        <v>-0.08494058750071382</v>
       </c>
       <c r="C61">
-        <v>-0.04870617036716739</v>
+        <v>0.005809904055122603</v>
       </c>
       <c r="D61">
-        <v>0.03047161354227613</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05342342218654554</v>
+      </c>
+      <c r="E61">
+        <v>-0.007852817511284492</v>
+      </c>
+      <c r="F61">
+        <v>0.01830125644724259</v>
+      </c>
+      <c r="G61">
+        <v>-0.03570527378248702</v>
+      </c>
+      <c r="H61">
+        <v>-0.0681393771937507</v>
+      </c>
+      <c r="I61">
+        <v>-0.02588418545693749</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1289615228704047</v>
+        <v>-0.1368133105004967</v>
       </c>
       <c r="C62">
-        <v>-0.04828340673651568</v>
+        <v>-0.002105932639299669</v>
       </c>
       <c r="D62">
-        <v>-0.003417277374989637</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04582544596510726</v>
+      </c>
+      <c r="E62">
+        <v>0.03972941428131393</v>
+      </c>
+      <c r="F62">
+        <v>-0.02946025270911646</v>
+      </c>
+      <c r="G62">
+        <v>-0.03604022790885362</v>
+      </c>
+      <c r="H62">
+        <v>-0.1951214626199704</v>
+      </c>
+      <c r="I62">
+        <v>0.1091801305923723</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05109785161142414</v>
+        <v>-0.04864638688152824</v>
       </c>
       <c r="C63">
-        <v>-0.02596727609238798</v>
+        <v>0.000212202297322916</v>
       </c>
       <c r="D63">
-        <v>0.02602398421613524</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02758452720044593</v>
+      </c>
+      <c r="E63">
+        <v>-0.03575767493108589</v>
+      </c>
+      <c r="F63">
+        <v>0.003920131986459329</v>
+      </c>
+      <c r="G63">
+        <v>-0.0394343954255083</v>
+      </c>
+      <c r="H63">
+        <v>-0.03764081566640857</v>
+      </c>
+      <c r="I63">
+        <v>0.01424726221392865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1063573097466797</v>
+        <v>-0.1117869430320248</v>
       </c>
       <c r="C64">
-        <v>-0.04554944723730504</v>
+        <v>0.01193950528261301</v>
       </c>
       <c r="D64">
-        <v>0.01433741684272493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03609936934625498</v>
+      </c>
+      <c r="E64">
+        <v>-0.03327112345666943</v>
+      </c>
+      <c r="F64">
+        <v>0.04860133359992288</v>
+      </c>
+      <c r="G64">
+        <v>-0.05382641014125809</v>
+      </c>
+      <c r="H64">
+        <v>-0.006909239961299566</v>
+      </c>
+      <c r="I64">
+        <v>-0.02061870730843506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1279690052969454</v>
+        <v>-0.1328755103109831</v>
       </c>
       <c r="C65">
-        <v>-0.05960879328492086</v>
+        <v>0.03257370512268778</v>
       </c>
       <c r="D65">
-        <v>0.004596493384100001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.02914631691371415</v>
+      </c>
+      <c r="E65">
+        <v>0.005962060075377633</v>
+      </c>
+      <c r="F65">
+        <v>0.04063142362452542</v>
+      </c>
+      <c r="G65">
+        <v>-0.0755582988290763</v>
+      </c>
+      <c r="H65">
+        <v>0.1880090525365781</v>
+      </c>
+      <c r="I65">
+        <v>0.01589019401680877</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1486012017467647</v>
+        <v>-0.1511522669726644</v>
       </c>
       <c r="C66">
-        <v>-0.0919602705871001</v>
+        <v>-0.00910769796500404</v>
       </c>
       <c r="D66">
-        <v>0.09044924418870924</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1175168537289714</v>
+      </c>
+      <c r="E66">
+        <v>0.02669979719238303</v>
+      </c>
+      <c r="F66">
+        <v>0.0007309918624621496</v>
+      </c>
+      <c r="G66">
+        <v>-0.08435044133121343</v>
+      </c>
+      <c r="H66">
+        <v>-0.07765411811539133</v>
+      </c>
+      <c r="I66">
+        <v>-0.07555624713695144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.08498988815555575</v>
+        <v>-0.09013612611189302</v>
       </c>
       <c r="C67">
-        <v>-0.0172062467259222</v>
+        <v>-0.01714633768050338</v>
       </c>
       <c r="D67">
-        <v>0.01329384083309824</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03113933585673453</v>
+      </c>
+      <c r="E67">
+        <v>-0.02286528716818532</v>
+      </c>
+      <c r="F67">
+        <v>0.008746233760350813</v>
+      </c>
+      <c r="G67">
+        <v>0.0279744866916728</v>
+      </c>
+      <c r="H67">
+        <v>-0.01915664848823296</v>
+      </c>
+      <c r="I67">
+        <v>0.02271364299245985</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04686217576713043</v>
+        <v>-0.06471538597551617</v>
       </c>
       <c r="C68">
-        <v>-0.02918756057836903</v>
+        <v>0.2004747020216136</v>
       </c>
       <c r="D68">
-        <v>-0.2609855992267026</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.1980742929455115</v>
+      </c>
+      <c r="E68">
+        <v>-0.04236780316783389</v>
+      </c>
+      <c r="F68">
+        <v>0.01295501008723698</v>
+      </c>
+      <c r="G68">
+        <v>-0.004923638950552732</v>
+      </c>
+      <c r="H68">
+        <v>-0.01405074391887407</v>
+      </c>
+      <c r="I68">
+        <v>-0.0263835606993649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05786804390106399</v>
+        <v>-0.0541603025269323</v>
       </c>
       <c r="C69">
-        <v>-0.0253796244512822</v>
+        <v>-0.004132833759467763</v>
       </c>
       <c r="D69">
-        <v>0.01740767239377948</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02332070760086492</v>
+      </c>
+      <c r="E69">
+        <v>-0.02300370740013774</v>
+      </c>
+      <c r="F69">
+        <v>-0.01370171105424913</v>
+      </c>
+      <c r="G69">
+        <v>-0.001358637247586595</v>
+      </c>
+      <c r="H69">
+        <v>-0.0404788844206827</v>
+      </c>
+      <c r="I69">
+        <v>-0.01353522029072292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.01149588244200698</v>
+        <v>-0.033383869920937</v>
       </c>
       <c r="C70">
-        <v>0.004189299549168206</v>
+        <v>0.001191743918445729</v>
       </c>
       <c r="D70">
-        <v>-0.0112406068691417</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007725209403951199</v>
+      </c>
+      <c r="E70">
+        <v>0.02326016479796364</v>
+      </c>
+      <c r="F70">
+        <v>-0.008724917798182146</v>
+      </c>
+      <c r="G70">
+        <v>0.03010614879499856</v>
+      </c>
+      <c r="H70">
+        <v>0.02255662498365228</v>
+      </c>
+      <c r="I70">
+        <v>0.0653426615074388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04374865110295367</v>
+        <v>-0.07006992552818757</v>
       </c>
       <c r="C71">
-        <v>-0.02482262880542374</v>
+        <v>0.2169617817146414</v>
       </c>
       <c r="D71">
-        <v>-0.2904984638548759</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2147584501414266</v>
+      </c>
+      <c r="E71">
+        <v>-0.03634514495674302</v>
+      </c>
+      <c r="F71">
+        <v>0.04080088271717167</v>
+      </c>
+      <c r="G71">
+        <v>-0.003255744564989975</v>
+      </c>
+      <c r="H71">
+        <v>-0.01376784542376006</v>
+      </c>
+      <c r="I71">
+        <v>-0.02590499564095703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1415922016569642</v>
+        <v>-0.1420010968737153</v>
       </c>
       <c r="C72">
-        <v>-0.06028309628051722</v>
+        <v>0.02732414769606994</v>
       </c>
       <c r="D72">
-        <v>-0.02614126973170671</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01311873002141805</v>
+      </c>
+      <c r="E72">
+        <v>0.03216363715129968</v>
+      </c>
+      <c r="F72">
+        <v>-0.1589135199798117</v>
+      </c>
+      <c r="G72">
+        <v>-0.1217425692416984</v>
+      </c>
+      <c r="H72">
+        <v>0.006385345318031865</v>
+      </c>
+      <c r="I72">
+        <v>-0.0401592068002001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2781171548219943</v>
+        <v>-0.278476790181134</v>
       </c>
       <c r="C73">
-        <v>-0.08466796350040659</v>
+        <v>-0.03780936536382396</v>
       </c>
       <c r="D73">
-        <v>0.03977764704712438</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08489955411436645</v>
+      </c>
+      <c r="E73">
+        <v>0.2832867124293914</v>
+      </c>
+      <c r="F73">
+        <v>0.033604482076489</v>
+      </c>
+      <c r="G73">
+        <v>0.2552081977933364</v>
+      </c>
+      <c r="H73">
+        <v>0.3612936846319377</v>
+      </c>
+      <c r="I73">
+        <v>-0.2240687332762291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07888743249586183</v>
+        <v>-0.08988074008563332</v>
       </c>
       <c r="C74">
-        <v>-0.0750361843435193</v>
+        <v>0.02691427253749365</v>
       </c>
       <c r="D74">
-        <v>0.002768695728304232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06386393707116829</v>
+      </c>
+      <c r="E74">
+        <v>0.009896878643466602</v>
+      </c>
+      <c r="F74">
+        <v>-0.001896679420867731</v>
+      </c>
+      <c r="G74">
+        <v>0.02839254812095956</v>
+      </c>
+      <c r="H74">
+        <v>-0.1331228729737466</v>
+      </c>
+      <c r="I74">
+        <v>-0.02791063919717064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1069794945993118</v>
+        <v>-0.1038550269954791</v>
       </c>
       <c r="C75">
-        <v>-0.04902857471460462</v>
+        <v>0.001993724661030499</v>
       </c>
       <c r="D75">
-        <v>-0.002601632504747632</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03045655630185048</v>
+      </c>
+      <c r="E75">
+        <v>-0.001114855884251045</v>
+      </c>
+      <c r="F75">
+        <v>1.285761968890651e-05</v>
+      </c>
+      <c r="G75">
+        <v>0.005175915522380743</v>
+      </c>
+      <c r="H75">
+        <v>-0.1118510720334518</v>
+      </c>
+      <c r="I75">
+        <v>0.05307898013064451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.128727980203231</v>
+        <v>-0.1357425243857453</v>
       </c>
       <c r="C76">
-        <v>-0.07019138215144469</v>
+        <v>0.01069018097418447</v>
       </c>
       <c r="D76">
-        <v>0.01741113022521951</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06753389990182508</v>
+      </c>
+      <c r="E76">
+        <v>-0.001645564310789147</v>
+      </c>
+      <c r="F76">
+        <v>0.03774246811910745</v>
+      </c>
+      <c r="G76">
+        <v>-0.0212861917877831</v>
+      </c>
+      <c r="H76">
+        <v>-0.2548468565957014</v>
+      </c>
+      <c r="I76">
+        <v>0.06031039687664105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.124982053079452</v>
+        <v>-0.1001287193515386</v>
       </c>
       <c r="C77">
-        <v>-0.01927263903240671</v>
+        <v>-0.04188020856795127</v>
       </c>
       <c r="D77">
-        <v>0.07097823181768564</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02549878771100976</v>
+      </c>
+      <c r="E77">
+        <v>-0.05668904774454351</v>
+      </c>
+      <c r="F77">
+        <v>0.09308229731963953</v>
+      </c>
+      <c r="G77">
+        <v>-0.7722402307885059</v>
+      </c>
+      <c r="H77">
+        <v>0.3080469931243774</v>
+      </c>
+      <c r="I77">
+        <v>0.294635007313877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1081095884035719</v>
+        <v>-0.1508659891619801</v>
       </c>
       <c r="C78">
-        <v>-0.04798246452081999</v>
+        <v>-0.0009442578412675286</v>
       </c>
       <c r="D78">
-        <v>0.08004564232076025</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08809527141741608</v>
+      </c>
+      <c r="E78">
+        <v>-0.04801618840709646</v>
+      </c>
+      <c r="F78">
+        <v>0.05774019062195742</v>
+      </c>
+      <c r="G78">
+        <v>-0.02499334558722387</v>
+      </c>
+      <c r="H78">
+        <v>0.109373300521006</v>
+      </c>
+      <c r="I78">
+        <v>-0.06159089273142165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1393127030675547</v>
+        <v>-0.1435182452110833</v>
       </c>
       <c r="C79">
-        <v>-0.06369579306363657</v>
+        <v>0.002870170726944825</v>
       </c>
       <c r="D79">
-        <v>0.02668772434051592</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05599400226075743</v>
+      </c>
+      <c r="E79">
+        <v>0.01306391402421002</v>
+      </c>
+      <c r="F79">
+        <v>0.01940422172588418</v>
+      </c>
+      <c r="G79">
+        <v>-0.02501011965350254</v>
+      </c>
+      <c r="H79">
+        <v>-0.169363355916587</v>
+      </c>
+      <c r="I79">
+        <v>0.02569233442325437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03449180157607796</v>
+        <v>-0.03885490123202337</v>
       </c>
       <c r="C80">
-        <v>-0.02418780321294597</v>
+        <v>0.007244433641354152</v>
       </c>
       <c r="D80">
-        <v>0.02693484372988485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02184876505530042</v>
+      </c>
+      <c r="E80">
+        <v>0.04642768867544975</v>
+      </c>
+      <c r="F80">
+        <v>0.001061093166066511</v>
+      </c>
+      <c r="G80">
+        <v>0.01204374210389616</v>
+      </c>
+      <c r="H80">
+        <v>-0.02405576783020489</v>
+      </c>
+      <c r="I80">
+        <v>-0.09130379395620979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1272223681273356</v>
+        <v>-0.128435238064711</v>
       </c>
       <c r="C81">
-        <v>-0.07409332011217927</v>
+        <v>0.02105709598320763</v>
       </c>
       <c r="D81">
-        <v>0.00842196863104509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04803609785178325</v>
+      </c>
+      <c r="E81">
+        <v>0.008876495183925184</v>
+      </c>
+      <c r="F81">
+        <v>0.0221255418555078</v>
+      </c>
+      <c r="G81">
+        <v>-0.001131004716214576</v>
+      </c>
+      <c r="H81">
+        <v>-0.1599197350153085</v>
+      </c>
+      <c r="I81">
+        <v>-0.004602755675498066</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.129706314597113</v>
+        <v>-0.1305187249970585</v>
       </c>
       <c r="C82">
-        <v>-0.06583069378026499</v>
+        <v>0.01661607802524654</v>
       </c>
       <c r="D82">
-        <v>0.009088127523490152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04838950353374645</v>
+      </c>
+      <c r="E82">
+        <v>0.02308022420469004</v>
+      </c>
+      <c r="F82">
+        <v>0.03549240442576044</v>
+      </c>
+      <c r="G82">
+        <v>0.0004034235739560739</v>
+      </c>
+      <c r="H82">
+        <v>-0.2423889933836665</v>
+      </c>
+      <c r="I82">
+        <v>0.06155742298115997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06591329793516552</v>
+        <v>-0.0806443967498779</v>
       </c>
       <c r="C83">
-        <v>0.02964988864827338</v>
+        <v>-0.04670750485881981</v>
       </c>
       <c r="D83">
-        <v>0.03029448988528883</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>6.072187963266328e-05</v>
+      </c>
+      <c r="E83">
+        <v>-0.02036594191481921</v>
+      </c>
+      <c r="F83">
+        <v>0.03592184925743239</v>
+      </c>
+      <c r="G83">
+        <v>0.05135943199138791</v>
+      </c>
+      <c r="H83">
+        <v>0.01164278924242086</v>
+      </c>
+      <c r="I83">
+        <v>-0.07857064821368506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.03003924888084276</v>
+        <v>-0.0329453473043337</v>
       </c>
       <c r="C84">
-        <v>-0.04449350473311488</v>
+        <v>0.003735311565658304</v>
       </c>
       <c r="D84">
-        <v>0.02959742068573523</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0507980592837117</v>
+      </c>
+      <c r="E84">
+        <v>-0.02158029519857289</v>
+      </c>
+      <c r="F84">
+        <v>-0.04200194321258729</v>
+      </c>
+      <c r="G84">
+        <v>0.01484450762400657</v>
+      </c>
+      <c r="H84">
+        <v>-0.02790024932921266</v>
+      </c>
+      <c r="I84">
+        <v>-0.05246284964264668</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1165899205562672</v>
+        <v>-0.1212002892561041</v>
       </c>
       <c r="C85">
-        <v>-0.04273895101185766</v>
+        <v>-0.00665885112796869</v>
       </c>
       <c r="D85">
-        <v>0.04306365388201187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04537707936904438</v>
+      </c>
+      <c r="E85">
+        <v>-0.005287637563418326</v>
+      </c>
+      <c r="F85">
+        <v>0.04162375727732309</v>
+      </c>
+      <c r="G85">
+        <v>-0.003920333902255607</v>
+      </c>
+      <c r="H85">
+        <v>-0.1495181105923229</v>
+      </c>
+      <c r="I85">
+        <v>0.007261707946601944</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04827749911723073</v>
+        <v>-0.04954196304637888</v>
       </c>
       <c r="C86">
-        <v>-0.03339732428969759</v>
+        <v>-0.007540569587946339</v>
       </c>
       <c r="D86">
-        <v>0.06753573539035744</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04384350914506734</v>
+      </c>
+      <c r="E86">
+        <v>-0.03207802368638721</v>
+      </c>
+      <c r="F86">
+        <v>0.02400456767486932</v>
+      </c>
+      <c r="G86">
+        <v>0.01527282318041168</v>
+      </c>
+      <c r="H86">
+        <v>0.04332707093039562</v>
+      </c>
+      <c r="I86">
+        <v>0.05635266535621331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1212520506496844</v>
+        <v>-0.125476965120727</v>
       </c>
       <c r="C87">
-        <v>-0.07578936286809526</v>
+        <v>-0.005554321244610193</v>
       </c>
       <c r="D87">
-        <v>0.06539931644464358</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08218935868168506</v>
+      </c>
+      <c r="E87">
+        <v>-0.02892562652282749</v>
+      </c>
+      <c r="F87">
+        <v>0.03165899286368964</v>
+      </c>
+      <c r="G87">
+        <v>-0.1496265730368101</v>
+      </c>
+      <c r="H87">
+        <v>0.08125201325521783</v>
+      </c>
+      <c r="I87">
+        <v>-0.001611200886361887</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05747154300592959</v>
+        <v>-0.06468483765814759</v>
       </c>
       <c r="C88">
-        <v>-0.03459428919694132</v>
+        <v>-0.00266164474574589</v>
       </c>
       <c r="D88">
-        <v>0.02670782761454412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04723634277918684</v>
+      </c>
+      <c r="E88">
+        <v>-0.0002403824670897946</v>
+      </c>
+      <c r="F88">
+        <v>0.0236215206025129</v>
+      </c>
+      <c r="G88">
+        <v>-0.005927992642355975</v>
+      </c>
+      <c r="H88">
+        <v>-0.04062932580021088</v>
+      </c>
+      <c r="I88">
+        <v>-0.0114324902274332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07364095278939951</v>
+        <v>-0.109590736848857</v>
       </c>
       <c r="C89">
-        <v>-0.04813963811146623</v>
+        <v>0.2711323211995076</v>
       </c>
       <c r="D89">
-        <v>-0.3235589011807459</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2475677239407612</v>
+      </c>
+      <c r="E89">
+        <v>-0.04638525305181732</v>
+      </c>
+      <c r="F89">
+        <v>0.07896682183882534</v>
+      </c>
+      <c r="G89">
+        <v>0.02386229997606419</v>
+      </c>
+      <c r="H89">
+        <v>-0.02849438401714289</v>
+      </c>
+      <c r="I89">
+        <v>-0.08042736669411572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.0604979924455205</v>
+        <v>-0.08512405990418165</v>
       </c>
       <c r="C90">
-        <v>-0.02951024448141973</v>
+        <v>0.2097404046465742</v>
       </c>
       <c r="D90">
-        <v>-0.2794511856114777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.208774302265268</v>
+      </c>
+      <c r="E90">
+        <v>-0.04886236201699862</v>
+      </c>
+      <c r="F90">
+        <v>0.03342276447671662</v>
+      </c>
+      <c r="G90">
+        <v>-0.03031361133857059</v>
+      </c>
+      <c r="H90">
+        <v>0.02103579271164143</v>
+      </c>
+      <c r="I90">
+        <v>-0.0756375117653276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09297319698724461</v>
+        <v>-0.09057520057940391</v>
       </c>
       <c r="C91">
-        <v>-0.05172995311536404</v>
+        <v>0.004287724644959427</v>
       </c>
       <c r="D91">
-        <v>0.004386658744017532</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03963309407382935</v>
+      </c>
+      <c r="E91">
+        <v>-0.0002391761589545188</v>
+      </c>
+      <c r="F91">
+        <v>0.00626178567711998</v>
+      </c>
+      <c r="G91">
+        <v>0.01593453529036251</v>
+      </c>
+      <c r="H91">
+        <v>-0.091781551335856</v>
+      </c>
+      <c r="I91">
+        <v>0.04059567486553925</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06051390018261191</v>
+        <v>-0.08469687978516091</v>
       </c>
       <c r="C92">
-        <v>-0.0386445940839889</v>
+        <v>0.2428674996364536</v>
       </c>
       <c r="D92">
-        <v>-0.3329969348458922</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2364247181492866</v>
+      </c>
+      <c r="E92">
+        <v>-0.04935267595337333</v>
+      </c>
+      <c r="F92">
+        <v>0.04190037334523699</v>
+      </c>
+      <c r="G92">
+        <v>-0.003218392428895403</v>
+      </c>
+      <c r="H92">
+        <v>-0.02738403997664832</v>
+      </c>
+      <c r="I92">
+        <v>-0.02894024372156212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05116002776515311</v>
+        <v>-0.08075892016782502</v>
       </c>
       <c r="C93">
-        <v>-0.04504985799633241</v>
+        <v>0.2370150591461509</v>
       </c>
       <c r="D93">
-        <v>-0.3084460631586314</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2110189691698582</v>
+      </c>
+      <c r="E93">
+        <v>-0.01094882816203455</v>
+      </c>
+      <c r="F93">
+        <v>0.02986909609787327</v>
+      </c>
+      <c r="G93">
+        <v>-0.02407759319197126</v>
+      </c>
+      <c r="H93">
+        <v>-0.0006479587911222716</v>
+      </c>
+      <c r="I93">
+        <v>-0.01093778012898579</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1318576237774263</v>
+        <v>-0.1270966149571841</v>
       </c>
       <c r="C94">
-        <v>-0.03548183364471198</v>
+        <v>-0.02136879503737726</v>
       </c>
       <c r="D94">
-        <v>0.040941420920303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03907440832064469</v>
+      </c>
+      <c r="E94">
+        <v>0.02114579398776786</v>
+      </c>
+      <c r="F94">
+        <v>0.01833685389763379</v>
+      </c>
+      <c r="G94">
+        <v>0.03661367373174513</v>
+      </c>
+      <c r="H94">
+        <v>-0.108919347630378</v>
+      </c>
+      <c r="I94">
+        <v>-0.01132508723301734</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1213264518947453</v>
+        <v>-0.1328848544300827</v>
       </c>
       <c r="C95">
-        <v>-0.03160291175865926</v>
+        <v>-0.02760449820092933</v>
       </c>
       <c r="D95">
-        <v>0.06281922048019339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05707874119502474</v>
+      </c>
+      <c r="E95">
+        <v>-0.0002131813725584675</v>
+      </c>
+      <c r="F95">
+        <v>0.05333958914426939</v>
+      </c>
+      <c r="G95">
+        <v>-0.03826629324558624</v>
+      </c>
+      <c r="H95">
+        <v>0.1164693045520462</v>
+      </c>
+      <c r="I95">
+        <v>0.04878271080225897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2331252945833059</v>
+        <v>-0.1936068040961365</v>
       </c>
       <c r="C97">
-        <v>-0.04658264551368085</v>
+        <v>0.008521562047259621</v>
       </c>
       <c r="D97">
-        <v>-0.1268775061503034</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06243401350049235</v>
+      </c>
+      <c r="E97">
+        <v>-0.02356163236078691</v>
+      </c>
+      <c r="F97">
+        <v>-0.9338859670349852</v>
+      </c>
+      <c r="G97">
+        <v>-0.08843708099414226</v>
+      </c>
+      <c r="H97">
+        <v>0.01757877021770772</v>
+      </c>
+      <c r="I97">
+        <v>-0.03015992350600525</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2469032862103058</v>
+        <v>-0.2788238274057285</v>
       </c>
       <c r="C98">
-        <v>-0.05517303398089717</v>
+        <v>-0.01017487055444581</v>
       </c>
       <c r="D98">
-        <v>0.0128583256485913</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04210226225354408</v>
+      </c>
+      <c r="E98">
+        <v>0.2042078281912333</v>
+      </c>
+      <c r="F98">
+        <v>0.009369936539682116</v>
+      </c>
+      <c r="G98">
+        <v>0.3234683693047902</v>
+      </c>
+      <c r="H98">
+        <v>0.1485912114563781</v>
+      </c>
+      <c r="I98">
+        <v>0.571434024908863</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.4065109409721318</v>
+        <v>-0.2581883533989718</v>
       </c>
       <c r="C99">
-        <v>0.895242515249993</v>
+        <v>-0.7160548378174225</v>
       </c>
       <c r="D99">
-        <v>-0.0004497252832892276</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.6138801333541853</v>
+      </c>
+      <c r="E99">
+        <v>-0.08837007224425622</v>
+      </c>
+      <c r="F99">
+        <v>0.08523644535866526</v>
+      </c>
+      <c r="G99">
+        <v>0.004699414085923782</v>
+      </c>
+      <c r="H99">
+        <v>-0.07341642452553734</v>
+      </c>
+      <c r="I99">
+        <v>-0.002210237864700517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.04522532535358265</v>
+        <v>-0.05081564739078698</v>
       </c>
       <c r="C101">
-        <v>-0.04134386314777128</v>
+        <v>0.02290647719375589</v>
       </c>
       <c r="D101">
-        <v>-0.00223417302906352</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02818264977717663</v>
+      </c>
+      <c r="E101">
+        <v>-0.04626437827874473</v>
+      </c>
+      <c r="F101">
+        <v>0.02975271555544366</v>
+      </c>
+      <c r="G101">
+        <v>-0.006836402491680378</v>
+      </c>
+      <c r="H101">
+        <v>-0.09259102401725434</v>
+      </c>
+      <c r="I101">
+        <v>-0.004855802112046511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
